--- a/contact_data.xlsx
+++ b/contact_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>First Name</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>2025-09-09 07:07:25</t>
+  </si>
+  <si>
+    <t>shra@gmail.com</t>
+  </si>
+  <si>
+    <t>098765</t>
+  </si>
+  <si>
+    <t>hello dear</t>
+  </si>
+  <si>
+    <t>2025-09-09 10:25:53</t>
   </si>
 </sst>
 </file>
@@ -459,7 +471,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,6 +639,26 @@
         <v>34</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contact_data.xlsx
+++ b/contact_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>First Name</t>
   </si>
@@ -35,103 +35,91 @@
     <t>Date &amp; Time</t>
   </si>
   <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
     <t>shraddha</t>
   </si>
   <si>
     <t>takmoge</t>
   </si>
   <si>
-    <t>shraddtakmoge@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">want to join your course need more info </t>
-  </si>
-  <si>
-    <t>2025-09-04 13:24:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">want to join your course </t>
-  </si>
-  <si>
-    <t>2025-09-04 13:25:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mandar </t>
-  </si>
-  <si>
-    <t>aglave</t>
-  </si>
-  <si>
-    <t>mandaraglave@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">need more info </t>
-  </si>
-  <si>
-    <t>2025-09-04 13:28:39</t>
-  </si>
-  <si>
-    <t>isha</t>
-  </si>
-  <si>
-    <t>bhise</t>
-  </si>
-  <si>
-    <t>ishabhise@gmail.com</t>
-  </si>
-  <si>
-    <t>i'm intriguid to join your course need more informtion to proceed with the decision</t>
-  </si>
-  <si>
-    <t>2025-09-04 13:32:12</t>
-  </si>
-  <si>
-    <t>sahil</t>
-  </si>
-  <si>
-    <t>sahiltakmoge1590@gmail.com</t>
-  </si>
-  <si>
-    <t>2025-09-09 07:04:54</t>
-  </si>
-  <si>
-    <t>Shraddha</t>
-  </si>
-  <si>
-    <t>Takmoge</t>
-  </si>
-  <si>
-    <t>shraddhatakmoge@gmail.com</t>
-  </si>
-  <si>
-    <t>lihfiweh fihwfiuef</t>
-  </si>
-  <si>
-    <t>2025-09-09 07:06:30</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>s@gmail.com</t>
-  </si>
-  <si>
-    <t>asdffghj</t>
-  </si>
-  <si>
-    <t>2025-09-09 07:07:25</t>
-  </si>
-  <si>
     <t>shra@gmail.com</t>
   </si>
   <si>
-    <t>098765</t>
-  </si>
-  <si>
-    <t>hello dear</t>
-  </si>
-  <si>
-    <t>2025-09-09 10:25:53</t>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>abcdefghijklmno</t>
+  </si>
+  <si>
+    <t>2025-09-09 18:14:23</t>
+  </si>
+  <si>
+    <t>Head Office</t>
+  </si>
+  <si>
+    <t>damon</t>
+  </si>
+  <si>
+    <t>salvatore</t>
+  </si>
+  <si>
+    <t>damon@vampire.falls</t>
+  </si>
+  <si>
+    <t>qwsdcvbnmkiuytre</t>
+  </si>
+  <si>
+    <t>2025-09-09 18:16:23</t>
+  </si>
+  <si>
+    <t>asdfghjkl;</t>
+  </si>
+  <si>
+    <t>2025-09-09 18:18:19</t>
+  </si>
+  <si>
+    <t>karuna</t>
+  </si>
+  <si>
+    <t>karuna@gmail.com</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>2025-09-09 18:20:43</t>
+  </si>
+  <si>
+    <t>pratiksha</t>
+  </si>
+  <si>
+    <t>bhosale</t>
+  </si>
+  <si>
+    <t>pratiksha@gmail.com</t>
+  </si>
+  <si>
+    <t>awiehfabfvaiohrg</t>
+  </si>
+  <si>
+    <t>2025-09-09 18:21:25</t>
+  </si>
+  <si>
+    <t>Branch 2</t>
+  </si>
+  <si>
+    <t>akrjhierhg nigf3rhgioiai efioifhagiadfbidaub</t>
+  </si>
+  <si>
+    <t>2025-09-10 06:53:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hey hey hey hey hey </t>
+  </si>
+  <si>
+    <t>2025-09-10 06:55:27</t>
   </si>
 </sst>
 </file>
@@ -139,14 +127,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -170,8 +168,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="3" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="3" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="3" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,194 +476,207 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="13.576428571429" customWidth="true" style="4"/>
+    <col min="2" max="2" width="13.576428571429" customWidth="true" style="4"/>
+    <col min="3" max="3" width="27.147857142857" customWidth="true" style="4"/>
+    <col min="4" max="4" width="13.147857142857" customWidth="true" style="5"/>
+    <col min="5" max="5" width="70.147857142857" customWidth="true" style="4"/>
+    <col min="6" max="6" width="18.719285714286" customWidth="true" style="4"/>
+    <col min="7" max="7" width="13.576428571429" customWidth="true" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:7" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>9876543215</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1234567890</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>9876543215</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
+    </row>
+    <row r="5" spans="1:7" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3">
         <v>1234567890</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>1265437890</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>9876054345</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>9322416117</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>9322416117</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
